--- a/罹患者数.xlsx
+++ b/罹患者数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vse50\Documents\GitHub\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBC5FF6-98CE-48A9-B283-212C2F45A69C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5BDE1C-FC50-4952-9005-17F08A2EF08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{78B2EF7E-3365-4F96-A959-B720599D7194}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78B2EF7E-3365-4F96-A959-B720599D7194}"/>
   </bookViews>
   <sheets>
     <sheet name="グラフ" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="224">
   <si>
     <t>足立区</t>
     <rPh sb="0" eb="3">
@@ -1390,6 +1390,18 @@
     <t>～4/5</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>～4/6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～4/7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>～4/8</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -2258,6 +2270,24 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed"/>
       <protection locked="0"/>
@@ -2265,21 +2295,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
@@ -2293,94 +2324,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2413,11 +2357,35 @@
     <xf numFmtId="38" fontId="14" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2440,33 +2408,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2475,17 +2420,84 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2632,7 +2644,7 @@
                   <c:v>台東区</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>世田谷区</c:v>
+                  <c:v>千代田区</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>品川区</c:v>
@@ -2641,115 +2653,115 @@
                   <c:v>中野区</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>世田谷区</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>杉並区</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>千代田区</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>豊島区</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>羽村市</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>大田区</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>練馬区</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>羽村市</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>大田区</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>葛飾区</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>三鷹市</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>狛江市</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>墨田区</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>板橋区</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>文京区</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>江東区</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>西東京市</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>江東区</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>葛飾区</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>三鷹市</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>墨田区</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>狛江市</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>板橋区</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>文京区</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>稲城市</c:v>
+                  <c:v>町田市</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>町田市</c:v>
+                  <c:v>日野市</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>足立区</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>日野市</c:v>
+                  <c:v>小金井市</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>北区</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>荒川区</c:v>
+                  <c:v>東大和市</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>武蔵野市</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>小金井市</c:v>
+                  <c:v>稲城市</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>江戸川区</c:v>
+                  <c:v>荒川区</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>昭島市</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>江戸川区</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>小平市</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>調布市</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>八王子市</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>府中市</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>東久留米市</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>調布市</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>八王子市</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>小平市</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
+                  <c:v>立川市</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>国分寺市</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>武蔵村山市</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="42">
                   <c:v>清瀬市</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>あきる野市</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>東大和市</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>立川市</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>青梅市</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>東村山市</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>府中市</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>国分寺市</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>国立市</c:v>
@@ -2788,7 +2800,7 @@
                   <c:v>7.1611692757193396E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6824999015610814E-5</c:v>
+                  <c:v>4.5399515738498786E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5.813094479740155E-5</c:v>
@@ -2797,112 +2809,112 @@
                   <c:v>4.377989802202421E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>4.6824999015610814E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4.7811594994809024E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.5399515738498786E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.9938825000914796E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>5.5008526321579844E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0282659137743596E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>2.6923698239190136E-5</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.5008526321579844E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.0282659137743596E-5</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>1.3189422083489042E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6382158189623806E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8503578592099713E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8555719517984739E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6946064911901646E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9243647671903503E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>3.8791264207300516E-5</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.9243647671903503E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.3189422083489042E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.6382158189623806E-5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.8503578592099713E-5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.8555719517984739E-6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.6946064911901646E-5</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0894432944765224E-5</c:v>
+                  <c:v>1.3828644654537409E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3828644654537409E-5</c:v>
+                  <c:v>1.5787977981033376E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.1706860220088972E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.5787977981033376E-5</c:v>
+                  <c:v>7.9519701005924223E-6</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.1293979461898348E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.1396817562812457E-6</c:v>
+                  <c:v>1.1872254541137362E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2.0210322085166299E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9519701005924223E-6</c:v>
+                  <c:v>1.0894432944765224E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1506801238707153E-5</c:v>
+                  <c:v>9.1396817562812457E-6</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>1.1506801238707153E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.0908720663849722E-6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.1709418820958149E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.939829939467333E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7998396467669062E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>8.5939447065597577E-6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.1709418820958149E-6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.939829939467333E-6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.0908720663849722E-6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1872254541137362E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.5017066382602045E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.7998396467669062E-6</c:v>
+                  <c:v>7.5017066382602045E-6</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -2926,194 +2938,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>推移!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>～4/1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>推移!$G$2:$G$51</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000%</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1.5353023586082485E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.5935015940945459E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.93054586898464E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1272418764424247E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.9932995297854665E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.0708144159111636E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.7467044246431453E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.813094479740155E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.2535877626429047E-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.1226708923009672E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.5399515738498786E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.3265361112127553E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.8269883151149643E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.5008526321579844E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1634836413593168E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.3640172233213079E-5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.3092377206284205E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.0775318194807765E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.6382158189623806E-5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.8503578592099713E-5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.028335792769771E-5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.6946064911901646E-5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.2683298834295673E-5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.304774109089568E-5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.4633575275111216E-5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.10506373080445E-5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.976446405832211E-5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.1396817562812457E-6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.6947096113555064E-5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.5903940201184845E-5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.1506801238707153E-5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.5939447065597577E-6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.1709418820958149E-6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.939829939467333E-6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.0181744132769944E-5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.1872254541137362E-5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.5017066382602045E-6</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.7998396467669062E-6</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-671F-4B1D-BEAD-C8933D442939}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>推移!$I$1</c:f>
@@ -3160,7 +2986,7 @@
                   <c:v>1.0980459556102988E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1301703046498284E-5</c:v>
+                  <c:v>6.0532687651331719E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.0241558296860207E-5</c:v>
@@ -3169,112 +2995,112 @@
                   <c:v>5.5454537494563995E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>7.1301703046498284E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5.8056936779410961E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.0532687651331719E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.3244969445765819E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>5.5008526321579844E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4339190965292314E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3.3654622798987668E-5</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.5008526321579844E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.4339190965292314E-5</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>3.0775318194807765E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6382158189623806E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5905010028939596E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5425036891546566E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6946064911901646E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3092377206284205E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>4.3640172233213079E-5</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.3092377206284205E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.0775318194807765E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.6382158189623806E-5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.5905010028939596E-5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.5425036891546566E-5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.6946064911901646E-5</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2683298834295673E-5</c:v>
+                  <c:v>2.304774109089568E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.304774109089568E-5</c:v>
+                  <c:v>2.10506373080445E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.6096932802622338E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.10506373080445E-5</c:v>
+                  <c:v>1.5903940201184845E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.976446405832211E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.370952263442187E-5</c:v>
+                  <c:v>1.1872254541137362E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2.6947096113555064E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.5903940201184845E-5</c:v>
+                  <c:v>3.2683298834295673E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.5821851703222336E-5</c:v>
+                  <c:v>1.370952263442187E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>1.5821851703222336E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0181744132769944E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.1709418820958149E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.939829939467333E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7998396467669062E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>8.5939447065597577E-6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.1709418820958149E-6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.939829939467333E-6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.0181744132769944E-5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1872254541137362E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.5017066382602045E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.7998396467669062E-6</c:v>
+                  <c:v>7.5017066382602045E-6</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3299,7 +3125,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>推移!$K$1</c:f>
@@ -3346,7 +3172,7 @@
                   <c:v>1.1935282126198899E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4072157323483062E-5</c:v>
+                  <c:v>6.0532687651331719E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.2663680996751928E-5</c:v>
@@ -3355,112 +3181,112 @@
                   <c:v>7.0047836835238734E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>8.4072157323483062E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>6.3179607671711926E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.0532687651331719E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.6571505556978576E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>5.5008526321579844E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5691368241141886E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4.5770287006623231E-5</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.5008526321579844E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.5691368241141886E-5</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>3.5171792222637446E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6382158189623806E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5797813946828316E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7007157184199426E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.228060884334504E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5419097367852467E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5016741973474556E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>4.3640172233213079E-5</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.5016741973474556E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.5171792222637446E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.6382158189623806E-5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.7007157184199426E-5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.5797813946828316E-5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.228060884334504E-5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.5419097367852467E-5</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2683298834295673E-5</c:v>
+                  <c:v>2.304774109089568E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.304774109089568E-5</c:v>
+                  <c:v>2.10506373080445E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1.7560290330133457E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.10506373080445E-5</c:v>
+                  <c:v>1.5903940201184845E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.976446405832211E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.370952263442187E-5</c:v>
+                  <c:v>1.1872254541137362E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2.6947096113555064E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.5903940201184845E-5</c:v>
+                  <c:v>3.2683298834295673E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.5821851703222336E-5</c:v>
+                  <c:v>1.370952263442187E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8.9186971567193471E-6</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>1.5821851703222336E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5272616199154916E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.1709418820958149E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.6747874243341668E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7998396467669062E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>1.7187889413119515E-5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.1709418820958149E-6</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.6747874243341668E-6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.5272616199154916E-5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1872254541137362E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.5017066382602045E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.7998396467669062E-6</c:v>
+                  <c:v>7.5017066382602045E-6</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3485,7 +3311,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>推移!$M$1</c:f>
@@ -3532,7 +3358,7 @@
                   <c:v>1.289010469629481E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8971020646631958E-5</c:v>
+                  <c:v>7.5665859564164653E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9.2040662595885785E-5</c:v>
@@ -3541,115 +3367,115 @@
                   <c:v>8.4641136175913473E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>9.8971020646631958E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>7.5132506420414187E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.5665859564164653E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.6551113890616841E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>5.5008526321579844E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7860963723788042E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>5.2501211566420766E-5</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.5008526321579844E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.7860963723788042E-5</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>3.9568266250467126E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1579609359570069E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5797813946828316E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.070787290261937E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5708394819244276E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9655613595827878E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6941106740664906E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>4.3640172233213079E-5</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.6941106740664906E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.9568266250467126E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.1579609359570069E-5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.070787290261937E-5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.5797813946828316E-5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.5708394819244276E-5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.9655613595827878E-5</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2683298834295673E-5</c:v>
+                  <c:v>2.5352515199985251E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.5352515199985251E-5</c:v>
+                  <c:v>3.1575955962066751E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2.9267150550222431E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.1575955962066751E-5</c:v>
+                  <c:v>1.5903940201184845E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2.5411453789271284E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.2849204390703114E-5</c:v>
+                  <c:v>1.1872254541137362E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2.6947096113555064E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.5903940201184845E-5</c:v>
+                  <c:v>3.2683298834295673E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.8698552012899125E-5</c:v>
+                  <c:v>2.2849204390703114E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8.9186971567193471E-6</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>1.8698552012899125E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5272616199154916E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2512825646287445E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0409744909201E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7998396467669062E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>1.7187889413119515E-5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.2512825646287445E-5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.0409744909201E-5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.5272616199154916E-5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.3977803248441475E-5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.3309199318568995E-5</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1872254541137362E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>1.3977803248441475E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3309199318568995E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>7.5017066382602045E-6</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>6.6538469215977215E-6</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.7998396467669062E-6</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
@@ -3671,7 +3497,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>推移!$O$1</c:f>
@@ -3718,7 +3544,7 @@
                   <c:v>1.3844927266390723E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1067727040053466E-4</c:v>
+                  <c:v>9.0799031476997572E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9.9307030695560978E-5</c:v>
@@ -3727,115 +3553,115 @@
                   <c:v>9.6315775648453251E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1.1067727040053466E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>9.5623189989618048E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.0799031476997572E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6.6530722224255107E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>5.5008526321579844E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0030559206434197E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>5.6539766302299287E-5</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.5008526321579844E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.0030559206434197E-5</c:v>
-                </c:pt>
                 <c:pt idx="15">
+                  <c:v>4.1766503264381963E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1579609359570069E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5797813946828316E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.070787290261937E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.427785975899237E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3892129823803292E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2336024878187708E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>4.8489080259125642E-5</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.2336024878187708E-5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.1766503264381963E-5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.1579609359570069E-5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.070787290261937E-5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.5797813946828316E-5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.427785975899237E-5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.3892129823803292E-5</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2683298834295673E-5</c:v>
+                  <c:v>3.2266837527253956E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2266837527253956E-5</c:v>
+                  <c:v>3.1575955962066751E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3.2193865605244676E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.1575955962066751E-5</c:v>
+                  <c:v>2.3855910301777267E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2.8234948654745871E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.741904526884374E-5</c:v>
+                  <c:v>1.1872254541137362E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2.6947096113555064E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.3855910301777267E-5</c:v>
+                  <c:v>3.2683298834295673E-5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.1575252322575912E-5</c:v>
+                  <c:v>2.741904526884374E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.7837394313438694E-5</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>2.1575252322575912E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5272616199154916E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.668376752838326E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5614617363801499E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7998396467669062E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>1.7187889413119515E-5</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.668376752838326E-5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.5614617363801499E-5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.5272616199154916E-5</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
+                  <c:v>1.1071132023249378E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>1.3977803248441475E-5</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="42">
                   <c:v>1.3309199318568995E-5</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="43">
                   <c:v>1.2498125281207818E-5</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.1872254541137362E-5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.1071132023249378E-5</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>7.5017066382602045E-6</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>6.6538469215977215E-6</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.7998396467669062E-6</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
@@ -3852,6 +3678,568 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-671F-4B1D-BEAD-C8933D442939}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>推移!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>～4/6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>推移!$Q$2:$Q$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>3.3392826299729402E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.062440382582691E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6585299470971474E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6611985547572574E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5291529535241762E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4799749836486636E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0593220338983051E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9307030695560978E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1966505459353283E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2025511110827324E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0245341784601934E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6530722224255107E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5008526321579844E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9495800137381209E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.1924505950137308E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7154162361785849E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1579609359570069E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5797813946828316E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.070787290261937E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.9419538722841222E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3892129823803292E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2336024878187708E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3640172233213079E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6876385745433091E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.2101274616088999E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6583938187778041E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3855910301777267E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.8234948654745871E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3744509082274723E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0420644170332597E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2683298834295673E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1988886146984363E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7837394313438694E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3013602477414306E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5272616199154916E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.668376752838326E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5614617363801499E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7998396467669062E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7187889413119515E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1071132023249378E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3977803248441475E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3309199318568995E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2498125281207818E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.5017066382602045E-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.6538469215977215E-6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-26F4-4C84-BB1F-BA08DE7303FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>推移!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>～4/7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>推移!$S$2:$S$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>3.4160477479033526E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2916004250918788E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7435827648970011E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7205270745700166E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7029203346064691E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5277161121534592E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3619854721549636E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1868401229469482E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2550237432980272E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2557613372368354E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1440631659472161E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9816475002744395E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5008526321579844E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0847977413230784E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4616875774056322E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3748873403530367E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6777060529516325E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5797813946828316E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1810020057879193E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1133431710790842E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2365162279754113E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4260389645378062E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3640172233213079E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6876385745433091E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.2101274616088999E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9510653242800279E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1807880402369689E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1058443520220462E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3744509082274723E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3683870141943825E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2683298834295673E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1988886146984363E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.675609147015804E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3013602477414306E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5272616199154916E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0854709410479075E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.7349574848668334E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7998396467669062E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7187889413119515E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6606698034874067E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3977803248441475E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3309199318568995E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2498125281207818E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.5017066382602045E-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.6538469215977215E-6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-26F4-4C84-BB1F-BA08DE7303FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>推移!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>～4/8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>推移!$U$2:$U$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>4.1069338092770643E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4061804463464728E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0837940360964158E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8391841141955349E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7724272870393862E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6709394976678458E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3619854721549636E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3563887119393694E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3425835393420757E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3196136086217594E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2977432927162451E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0312261944759541E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.1680877202633072E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8961041068328228E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.4616875774056322E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3748873403530367E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.23694140393551E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9663023244713853E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1810020057879193E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.1416789638488552E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0838194735704934E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0033483946949111E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8489080259125642E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.609548218179136E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.2101274616088999E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0974010770311405E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9759850502962108E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6705433251169636E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5616763623412088E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3683870141943825E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2683298834295673E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1988886146984363E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.675609147015804E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5890302787091096E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5454360331924858E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.502565129257489E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9084532333535168E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8999198233834532E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7187889413119515E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6606698034874067E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5617923128582361E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3977803248441475E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3309199318568995E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2498125281207818E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.5017066382602045E-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.6538469215977215E-6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-26F4-4C84-BB1F-BA08DE7303FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9643,7 +10031,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8296D0FF-BEEA-438C-9999-2001385208B2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12218,6 +12606,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>677518</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>191125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D775BE21-1865-4F72-89C4-C9B322894109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26193750"/>
+          <a:ext cx="8907118" cy="4477375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12625,10 +13057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941C79C5-BE41-4B58-9A09-0E12EB7B9F53}">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12643,11 +13075,16 @@
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="6.25" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.25" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="6.25" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -12693,8 +13130,26 @@
       <c r="O1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1">
+      <c r="P1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" t="s">
+        <v>222</v>
+      </c>
+      <c r="S1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T1" t="s">
+        <v>223</v>
+      </c>
+      <c r="U1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="18.75" customHeight="1">
       <c r="A2">
         <v>3</v>
       </c>
@@ -12746,8 +13201,29 @@
         <f>N2/$C2</f>
         <v>3.1857523941121154E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>P2/$C2</f>
+        <v>3.3392826299729402E-4</v>
+      </c>
+      <c r="R2">
+        <v>89</v>
+      </c>
+      <c r="S2" s="2">
+        <f>R2/$C2</f>
+        <v>3.4160477479033526E-4</v>
+      </c>
+      <c r="T2">
+        <v>107</v>
+      </c>
+      <c r="U2" s="2">
+        <f>T2/$C2</f>
+        <v>4.1069338092770643E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>4</v>
       </c>
@@ -12799,8 +13275,29 @@
         <f>N3/$C3</f>
         <v>1.7187003188189092E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>P3/$C3</f>
+        <v>2.062440382582691E-4</v>
+      </c>
+      <c r="R3">
+        <v>80</v>
+      </c>
+      <c r="S3" s="2">
+        <f>R3/$C3</f>
+        <v>2.2916004250918788E-4</v>
+      </c>
+      <c r="T3">
+        <v>84</v>
+      </c>
+      <c r="U3" s="2">
+        <f>T3/$C3</f>
+        <v>2.4061804463464728E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>13</v>
       </c>
@@ -12852,8 +13349,29 @@
         <f>N4/$C4</f>
         <v>1.5734771292972937E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>P4/$C4</f>
+        <v>1.6585299470971474E-4</v>
+      </c>
+      <c r="R4">
+        <v>41</v>
+      </c>
+      <c r="S4" s="2">
+        <f>R4/$C4</f>
+        <v>1.7435827648970011E-4</v>
+      </c>
+      <c r="T4">
+        <v>49</v>
+      </c>
+      <c r="U4" s="2">
+        <f>T4/$C4</f>
+        <v>2.0837940360964158E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>2</v>
       </c>
@@ -12905,8 +13423,29 @@
         <f>N5/$C5</f>
         <v>1.4832129953189799E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>P5/$C5</f>
+        <v>1.6611985547572574E-4</v>
+      </c>
+      <c r="R5">
+        <v>29</v>
+      </c>
+      <c r="S5" s="2">
+        <f>R5/$C5</f>
+        <v>1.7205270745700166E-4</v>
+      </c>
+      <c r="T5">
+        <v>31</v>
+      </c>
+      <c r="U5" s="2">
+        <f>T5/$C5</f>
+        <v>1.8391841141955349E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>10</v>
       </c>
@@ -12958,8 +13497,29 @@
         <f>N6/$C6</f>
         <v>1.4596460010912591E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>P6/$C6</f>
+        <v>1.5291529535241762E-4</v>
+      </c>
+      <c r="R6">
+        <v>49</v>
+      </c>
+      <c r="S6" s="2">
+        <f>R6/$C6</f>
+        <v>1.7029203346064691E-4</v>
+      </c>
+      <c r="T6">
+        <v>51</v>
+      </c>
+      <c r="U6" s="2">
+        <f>T6/$C6</f>
+        <v>1.7724272870393862E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13011,61 +13571,103 @@
         <f>N7/$C7</f>
         <v>1.3844927266390723E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>P7/$C7</f>
+        <v>1.4799749836486636E-4</v>
+      </c>
+      <c r="R7">
+        <v>32</v>
+      </c>
+      <c r="S7" s="2">
+        <f>R7/$C7</f>
+        <v>1.5277161121534592E-4</v>
+      </c>
+      <c r="T7">
+        <v>35</v>
+      </c>
+      <c r="U7" s="2">
+        <f>T7/$C7</f>
+        <v>1.6709394976678458E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" s="194">
-        <v>939669</v>
+        <v>66080</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2">
         <f>D8/$C8</f>
-        <v>4.6824999015610814E-5</v>
+        <v>4.5399515738498786E-5</v>
       </c>
       <c r="F8">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2">
         <f>F8/$C8</f>
-        <v>5.7467044246431453E-5</v>
+        <v>4.5399515738498786E-5</v>
       </c>
       <c r="H8">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="I8" s="2">
         <f>H8/$C8</f>
-        <v>7.1301703046498284E-5</v>
+        <v>6.0532687651331719E-5</v>
       </c>
       <c r="J8">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="K8" s="2">
         <f>J8/$C8</f>
-        <v>8.4072157323483062E-5</v>
+        <v>6.0532687651331719E-5</v>
       </c>
       <c r="L8">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="M8" s="2">
         <f>L8/$C8</f>
-        <v>9.8971020646631958E-5</v>
+        <v>7.5665859564164653E-5</v>
       </c>
       <c r="N8">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="O8" s="2">
         <f>N8/$C8</f>
-        <v>1.1067727040053466E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.0799031476997572E-5</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>P8/$C8</f>
+        <v>1.0593220338983051E-4</v>
+      </c>
+      <c r="R8">
+        <v>9</v>
+      </c>
+      <c r="S8" s="2">
+        <f>R8/$C8</f>
+        <v>1.3619854721549636E-4</v>
+      </c>
+      <c r="T8">
+        <v>9</v>
+      </c>
+      <c r="U8" s="2">
+        <f>T8/$C8</f>
+        <v>1.3619854721549636E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>9</v>
       </c>
@@ -13117,8 +13719,29 @@
         <f>N9/$C9</f>
         <v>9.9307030695560978E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>P9/$C9</f>
+        <v>9.9307030695560978E-5</v>
+      </c>
+      <c r="R9">
+        <v>49</v>
+      </c>
+      <c r="S9" s="2">
+        <f>R9/$C9</f>
+        <v>1.1868401229469482E-4</v>
+      </c>
+      <c r="T9">
+        <v>56</v>
+      </c>
+      <c r="U9" s="2">
+        <f>T9/$C9</f>
+        <v>1.3563887119393694E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>14</v>
       </c>
@@ -13170,114 +13793,177 @@
         <f>N10/$C10</f>
         <v>9.6315775648453251E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="18.75" customHeight="1">
+      <c r="P10">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>P10/$C10</f>
+        <v>1.1966505459353283E-4</v>
+      </c>
+      <c r="R10">
+        <v>43</v>
+      </c>
+      <c r="S10" s="2">
+        <f>R10/$C10</f>
+        <v>1.2550237432980272E-4</v>
+      </c>
+      <c r="T10">
+        <v>46</v>
+      </c>
+      <c r="U10" s="2">
+        <f>T10/$C10</f>
+        <v>1.3425835393420757E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18.75" customHeight="1">
       <c r="A11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="194">
-        <v>585632</v>
+        <v>939669</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2">
         <f>D11/$C11</f>
-        <v>4.7811594994809024E-5</v>
+        <v>4.6824999015610814E-5</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2">
         <f>F11/$C11</f>
-        <v>5.1226708923009672E-5</v>
+        <v>5.7467044246431453E-5</v>
       </c>
       <c r="H11">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I11" s="2">
         <f>H11/$C11</f>
-        <v>5.8056936779410961E-5</v>
+        <v>7.1301703046498284E-5</v>
       </c>
       <c r="J11">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2">
         <f>J11/$C11</f>
-        <v>6.3179607671711926E-5</v>
+        <v>8.4072157323483062E-5</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="M11" s="2">
         <f>L11/$C11</f>
-        <v>7.5132506420414187E-5</v>
+        <v>9.8971020646631958E-5</v>
       </c>
       <c r="N11">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="O11" s="2">
         <f>N11/$C11</f>
-        <v>9.5623189989618048E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.1067727040053466E-4</v>
+      </c>
+      <c r="P11">
+        <v>113</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>P11/$C11</f>
+        <v>1.2025511110827324E-4</v>
+      </c>
+      <c r="R11">
+        <v>118</v>
+      </c>
+      <c r="S11" s="2">
+        <f>R11/$C11</f>
+        <v>1.2557613372368354E-4</v>
+      </c>
+      <c r="T11">
+        <v>124</v>
+      </c>
+      <c r="U11" s="2">
+        <f>T11/$C11</f>
+        <v>1.3196136086217594E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="194">
-        <v>66080</v>
+        <v>585632</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2">
         <f>D12/$C12</f>
-        <v>4.5399515738498786E-5</v>
+        <v>4.7811594994809024E-5</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2">
         <f>F12/$C12</f>
-        <v>4.5399515738498786E-5</v>
+        <v>5.1226708923009672E-5</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="I12" s="2">
         <f>H12/$C12</f>
-        <v>6.0532687651331719E-5</v>
+        <v>5.8056936779410961E-5</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="K12" s="2">
         <f>J12/$C12</f>
-        <v>6.0532687651331719E-5</v>
+        <v>6.3179607671711926E-5</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="M12" s="2">
         <f>L12/$C12</f>
-        <v>7.5665859564164653E-5</v>
+        <v>7.5132506420414187E-5</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="O12" s="2">
         <f>N12/$C12</f>
-        <v>9.0799031476997572E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.5623189989618048E-5</v>
+      </c>
+      <c r="P12">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>P12/$C12</f>
+        <v>1.0245341784601934E-4</v>
+      </c>
+      <c r="R12">
+        <v>67</v>
+      </c>
+      <c r="S12" s="2">
+        <f>R12/$C12</f>
+        <v>1.1440631659472161E-4</v>
+      </c>
+      <c r="T12">
+        <v>76</v>
+      </c>
+      <c r="U12" s="2">
+        <f>T12/$C12</f>
+        <v>1.2977432927162451E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>16</v>
       </c>
@@ -13329,697 +14015,991 @@
         <f>N13/$C13</f>
         <v>6.6530722224255107E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>P13/$C13</f>
+        <v>6.6530722224255107E-5</v>
+      </c>
+      <c r="R13">
+        <v>27</v>
+      </c>
+      <c r="S13" s="2">
+        <f>R13/$C13</f>
+        <v>8.9816475002744395E-5</v>
+      </c>
+      <c r="T13">
+        <v>31</v>
+      </c>
+      <c r="U13" s="2">
+        <f>T13/$C13</f>
+        <v>1.0312261944759541E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C14" s="194">
-        <v>742840</v>
+        <v>54537</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2">
         <f>D14/$C14</f>
-        <v>2.6923698239190136E-5</v>
+        <v>5.5008526321579844E-5</v>
       </c>
       <c r="F14">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G14" s="2">
         <f>F14/$C14</f>
-        <v>2.8269883151149643E-5</v>
+        <v>5.5008526321579844E-5</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I14" s="2">
         <f>H14/$C14</f>
-        <v>3.3654622798987668E-5</v>
+        <v>5.5008526321579844E-5</v>
       </c>
       <c r="J14">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="K14" s="2">
         <f>J14/$C14</f>
-        <v>4.5770287006623231E-5</v>
+        <v>5.5008526321579844E-5</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="M14" s="2">
         <f>L14/$C14</f>
-        <v>5.2501211566420766E-5</v>
+        <v>5.5008526321579844E-5</v>
       </c>
       <c r="N14">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="O14" s="2">
         <f>N14/$C14</f>
-        <v>5.6539766302299287E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>5.5008526321579844E-5</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>P14/$C14</f>
+        <v>5.5008526321579844E-5</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14" s="2">
+        <f>R14/$C14</f>
+        <v>5.5008526321579844E-5</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14" s="2">
+        <f>T14/$C14</f>
+        <v>9.1680877202633072E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C15" s="194">
-        <v>54537</v>
+        <v>739548</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
         <f>D15/$C15</f>
-        <v>5.5008526321579844E-5</v>
+        <v>2.0282659137743596E-5</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2">
         <f>F15/$C15</f>
-        <v>5.5008526321579844E-5</v>
+        <v>2.1634836413593168E-5</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I15" s="2">
         <f>H15/$C15</f>
-        <v>5.5008526321579844E-5</v>
+        <v>2.4339190965292314E-5</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K15" s="2">
         <f>J15/$C15</f>
-        <v>5.5008526321579844E-5</v>
+        <v>2.5691368241141886E-5</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="M15" s="2">
         <f>L15/$C15</f>
-        <v>5.5008526321579844E-5</v>
+        <v>3.7860963723788042E-5</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="O15" s="2">
         <f>N15/$C15</f>
-        <v>5.5008526321579844E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>5.0030559206434197E-5</v>
+      </c>
+      <c r="P15">
+        <v>44</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>P15/$C15</f>
+        <v>5.9495800137381209E-5</v>
+      </c>
+      <c r="R15">
+        <v>45</v>
+      </c>
+      <c r="S15" s="2">
+        <f>R15/$C15</f>
+        <v>6.0847977413230784E-5</v>
+      </c>
+      <c r="T15">
+        <v>51</v>
+      </c>
+      <c r="U15" s="2">
+        <f>T15/$C15</f>
+        <v>6.8961041068328228E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C16" s="194">
-        <v>739548</v>
+        <v>742840</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2">
         <f>D16/$C16</f>
-        <v>2.0282659137743596E-5</v>
+        <v>2.6923698239190136E-5</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G16" s="2">
         <f>F16/$C16</f>
-        <v>2.1634836413593168E-5</v>
+        <v>2.8269883151149643E-5</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I16" s="2">
         <f>H16/$C16</f>
-        <v>2.4339190965292314E-5</v>
+        <v>3.3654622798987668E-5</v>
       </c>
       <c r="J16">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K16" s="2">
         <f>J16/$C16</f>
-        <v>2.5691368241141886E-5</v>
+        <v>4.5770287006623231E-5</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M16" s="2">
         <f>L16/$C16</f>
-        <v>3.7860963723788042E-5</v>
+        <v>5.2501211566420766E-5</v>
       </c>
       <c r="N16">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O16" s="2">
         <f>N16/$C16</f>
-        <v>5.0030559206434197E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>5.6539766302299287E-5</v>
+      </c>
+      <c r="P16">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>P16/$C16</f>
+        <v>6.1924505950137308E-5</v>
+      </c>
+      <c r="R16">
+        <v>48</v>
+      </c>
+      <c r="S16" s="2">
+        <f>R16/$C16</f>
+        <v>6.4616875774056322E-5</v>
+      </c>
+      <c r="T16">
+        <v>48</v>
+      </c>
+      <c r="U16" s="2">
+        <f>T16/$C16</f>
+        <v>6.4616875774056322E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C17" s="194">
-        <v>206232</v>
+        <v>454910</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2">
         <f>D17/$C17</f>
-        <v>3.8791264207300516E-5</v>
+        <v>1.3189422083489042E-5</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2">
         <f>F17/$C17</f>
-        <v>4.3640172233213079E-5</v>
+        <v>3.0775318194807765E-5</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I17" s="2">
         <f>H17/$C17</f>
-        <v>4.3640172233213079E-5</v>
+        <v>3.0775318194807765E-5</v>
       </c>
       <c r="J17">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K17" s="2">
         <f>J17/$C17</f>
-        <v>4.3640172233213079E-5</v>
+        <v>3.5171792222637446E-5</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M17" s="2">
         <f>L17/$C17</f>
-        <v>4.3640172233213079E-5</v>
+        <v>3.9568266250467126E-5</v>
       </c>
       <c r="N17">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="O17" s="2">
         <f>N17/$C17</f>
-        <v>4.8489080259125642E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>4.1766503264381963E-5</v>
+      </c>
+      <c r="P17">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="2">
+        <f>P17/$C17</f>
+        <v>5.7154162361785849E-5</v>
+      </c>
+      <c r="R17">
+        <v>29</v>
+      </c>
+      <c r="S17" s="2">
+        <f>R17/$C17</f>
+        <v>6.3748873403530367E-5</v>
+      </c>
+      <c r="T17">
+        <v>29</v>
+      </c>
+      <c r="U17" s="2">
+        <f>T17/$C17</f>
+        <v>6.3748873403530367E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="194">
+        <v>192402</v>
+      </c>
+      <c r="D18">
         <v>7</v>
-      </c>
-      <c r="C18" s="194">
-        <v>519652</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
       </c>
       <c r="E18" s="2">
         <f>D18/$C18</f>
-        <v>1.9243647671903503E-5</v>
+        <v>3.6382158189623806E-5</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2">
         <f>F18/$C18</f>
-        <v>2.3092377206284205E-5</v>
+        <v>3.6382158189623806E-5</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I18" s="2">
         <f>H18/$C18</f>
-        <v>2.3092377206284205E-5</v>
+        <v>3.6382158189623806E-5</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K18" s="2">
         <f>J18/$C18</f>
-        <v>2.5016741973474556E-5</v>
+        <v>3.6382158189623806E-5</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M18" s="2">
         <f>L18/$C18</f>
-        <v>2.6941106740664906E-5</v>
+        <v>4.1579609359570069E-5</v>
       </c>
       <c r="N18">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="O18" s="2">
         <f>N18/$C18</f>
-        <v>4.2336024878187708E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>4.1579609359570069E-5</v>
+      </c>
+      <c r="P18">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="2">
+        <f>P18/$C18</f>
+        <v>4.1579609359570069E-5</v>
+      </c>
+      <c r="R18">
+        <v>9</v>
+      </c>
+      <c r="S18" s="2">
+        <f>R18/$C18</f>
+        <v>4.6777060529516325E-5</v>
+      </c>
+      <c r="T18">
+        <v>12</v>
+      </c>
+      <c r="U18" s="2">
+        <f>T18/$C18</f>
+        <v>6.23694140393551E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C19" s="194">
-        <v>454910</v>
+        <v>83804</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
         <f>D19/$C19</f>
-        <v>1.3189422083489042E-5</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
         <f>F19/$C19</f>
-        <v>3.0775318194807765E-5</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
         <f>H19/$C19</f>
-        <v>3.0775318194807765E-5</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="K19" s="2">
         <f>J19/$C19</f>
-        <v>3.5171792222637446E-5</v>
+        <v>3.5797813946828316E-5</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M19" s="2">
         <f>L19/$C19</f>
-        <v>3.9568266250467126E-5</v>
+        <v>3.5797813946828316E-5</v>
       </c>
       <c r="N19">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O19" s="2">
         <f>N19/$C19</f>
-        <v>4.1766503264381963E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>3.5797813946828316E-5</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="2">
+        <f>P19/$C19</f>
+        <v>3.5797813946828316E-5</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19" s="2">
+        <f>R19/$C19</f>
+        <v>3.5797813946828316E-5</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19" s="2">
+        <f>T19/$C19</f>
+        <v>5.9663023244713853E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C20" s="194">
-        <v>192402</v>
+        <v>270218</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E20" s="2">
         <f>D20/$C20</f>
-        <v>3.6382158189623806E-5</v>
+        <v>1.8503578592099713E-5</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2">
         <f>F20/$C20</f>
-        <v>3.6382158189623806E-5</v>
+        <v>1.8503578592099713E-5</v>
       </c>
       <c r="H20">
         <v>7</v>
       </c>
       <c r="I20" s="2">
         <f>H20/$C20</f>
-        <v>3.6382158189623806E-5</v>
+        <v>2.5905010028939596E-5</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K20" s="2">
         <f>J20/$C20</f>
-        <v>3.6382158189623806E-5</v>
+        <v>3.7007157184199426E-5</v>
       </c>
       <c r="L20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M20" s="2">
         <f>L20/$C20</f>
-        <v>4.1579609359570069E-5</v>
+        <v>4.070787290261937E-5</v>
       </c>
       <c r="N20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O20" s="2">
         <f>N20/$C20</f>
-        <v>4.1579609359570069E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>4.070787290261937E-5</v>
+      </c>
+      <c r="P20">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="2">
+        <f>P20/$C20</f>
+        <v>4.070787290261937E-5</v>
+      </c>
+      <c r="R20">
+        <v>14</v>
+      </c>
+      <c r="S20" s="2">
+        <f>R20/$C20</f>
+        <v>5.1810020057879193E-5</v>
+      </c>
+      <c r="T20">
+        <v>14</v>
+      </c>
+      <c r="U20" s="2">
+        <f>T20/$C20</f>
+        <v>5.1810020057879193E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C21" s="194">
-        <v>270218</v>
+        <v>583467</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="2">
         <f>D21/$C21</f>
-        <v>1.8503578592099713E-5</v>
+        <v>6.8555719517984739E-6</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" s="2">
         <f>F21/$C21</f>
-        <v>1.8503578592099713E-5</v>
+        <v>1.028335792769771E-5</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I21" s="2">
         <f>H21/$C21</f>
-        <v>2.5905010028939596E-5</v>
+        <v>1.5425036891546566E-5</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K21" s="2">
         <f>J21/$C21</f>
-        <v>3.7007157184199426E-5</v>
+        <v>2.228060884334504E-5</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M21" s="2">
         <f>L21/$C21</f>
-        <v>4.070787290261937E-5</v>
+        <v>2.5708394819244276E-5</v>
       </c>
       <c r="N21">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="O21" s="2">
         <f>N21/$C21</f>
-        <v>4.070787290261937E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>3.427785975899237E-5</v>
+      </c>
+      <c r="P21">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="2">
+        <f>P21/$C21</f>
+        <v>3.9419538722841222E-5</v>
+      </c>
+      <c r="R21">
+        <v>24</v>
+      </c>
+      <c r="S21" s="2">
+        <f>R21/$C21</f>
+        <v>4.1133431710790842E-5</v>
+      </c>
+      <c r="T21">
+        <v>30</v>
+      </c>
+      <c r="U21" s="2">
+        <f>T21/$C21</f>
+        <v>5.1416789638488552E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C22" s="194">
-        <v>83804</v>
+        <v>236043</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2">
         <f>D22/$C22</f>
-        <v>0</v>
+        <v>1.6946064911901646E-5</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22" s="2">
         <f>F22/$C22</f>
-        <v>0</v>
+        <v>1.6946064911901646E-5</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" s="2">
         <f>H22/$C22</f>
-        <v>0</v>
+        <v>1.6946064911901646E-5</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K22" s="2">
         <f>J22/$C22</f>
-        <v>3.5797813946828316E-5</v>
+        <v>2.5419097367852467E-5</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M22" s="2">
         <f>L22/$C22</f>
-        <v>3.5797813946828316E-5</v>
+        <v>2.9655613595827878E-5</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O22" s="2">
         <f>N22/$C22</f>
-        <v>3.5797813946828316E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>3.3892129823803292E-5</v>
+      </c>
+      <c r="P22">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>P22/$C22</f>
+        <v>3.3892129823803292E-5</v>
+      </c>
+      <c r="R22">
+        <v>10</v>
+      </c>
+      <c r="S22" s="2">
+        <f>R22/$C22</f>
+        <v>4.2365162279754113E-5</v>
+      </c>
+      <c r="T22">
+        <v>12</v>
+      </c>
+      <c r="U22" s="2">
+        <f>T22/$C22</f>
+        <v>5.0838194735704934E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C23" s="194">
-        <v>583467</v>
+        <v>519652</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2">
         <f>D23/$C23</f>
-        <v>6.8555719517984739E-6</v>
+        <v>1.9243647671903503E-5</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G23" s="2">
         <f>F23/$C23</f>
-        <v>1.028335792769771E-5</v>
+        <v>2.3092377206284205E-5</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I23" s="2">
         <f>H23/$C23</f>
-        <v>1.5425036891546566E-5</v>
+        <v>2.3092377206284205E-5</v>
       </c>
       <c r="J23">
         <v>13</v>
       </c>
       <c r="K23" s="2">
         <f>J23/$C23</f>
-        <v>2.228060884334504E-5</v>
+        <v>2.5016741973474556E-5</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M23" s="2">
         <f>L23/$C23</f>
-        <v>2.5708394819244276E-5</v>
+        <v>2.6941106740664906E-5</v>
       </c>
       <c r="N23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O23" s="2">
         <f>N23/$C23</f>
-        <v>3.427785975899237E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.2336024878187708E-5</v>
+      </c>
+      <c r="P23">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="2">
+        <f>P23/$C23</f>
+        <v>4.2336024878187708E-5</v>
+      </c>
+      <c r="R23">
+        <v>23</v>
+      </c>
+      <c r="S23" s="2">
+        <f>R23/$C23</f>
+        <v>4.4260389645378062E-5</v>
+      </c>
+      <c r="T23">
+        <v>26</v>
+      </c>
+      <c r="U23" s="2">
+        <f>T23/$C23</f>
+        <v>5.0033483946949111E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C24" s="194">
-        <v>236043</v>
+        <v>206232</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E24" s="2">
         <f>D24/$C24</f>
-        <v>1.6946064911901646E-5</v>
+        <v>3.8791264207300516E-5</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G24" s="2">
         <f>F24/$C24</f>
-        <v>1.6946064911901646E-5</v>
+        <v>4.3640172233213079E-5</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I24" s="2">
         <f>H24/$C24</f>
-        <v>1.6946064911901646E-5</v>
+        <v>4.3640172233213079E-5</v>
       </c>
       <c r="J24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K24" s="2">
         <f>J24/$C24</f>
-        <v>2.5419097367852467E-5</v>
+        <v>4.3640172233213079E-5</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M24" s="2">
         <f>L24/$C24</f>
-        <v>2.9655613595827878E-5</v>
+        <v>4.3640172233213079E-5</v>
       </c>
       <c r="N24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O24" s="2">
         <f>N24/$C24</f>
-        <v>3.3892129823803292E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>4.8489080259125642E-5</v>
+      </c>
+      <c r="P24">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>P24/$C24</f>
+        <v>4.3640172233213079E-5</v>
+      </c>
+      <c r="R24">
+        <v>9</v>
+      </c>
+      <c r="S24" s="2">
+        <f>R24/$C24</f>
+        <v>4.3640172233213079E-5</v>
+      </c>
+      <c r="T24">
+        <v>10</v>
+      </c>
+      <c r="U24" s="2">
+        <f>T24/$C24</f>
+        <v>4.8489080259125642E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C25" s="194">
-        <v>91790</v>
+        <v>433882</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E25" s="2">
         <f>D25/$C25</f>
-        <v>1.0894432944765224E-5</v>
+        <v>1.3828644654537409E-5</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2">
         <f>F25/$C25</f>
-        <v>3.2683298834295673E-5</v>
+        <v>2.304774109089568E-5</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I25" s="2">
         <f>H25/$C25</f>
-        <v>3.2683298834295673E-5</v>
+        <v>2.304774109089568E-5</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K25" s="2">
         <f>J25/$C25</f>
-        <v>3.2683298834295673E-5</v>
+        <v>2.304774109089568E-5</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M25" s="2">
         <f>L25/$C25</f>
-        <v>3.2683298834295673E-5</v>
+        <v>2.5352515199985251E-5</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="O25" s="2">
         <f>N25/$C25</f>
-        <v>3.2683298834295673E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>3.2266837527253956E-5</v>
+      </c>
+      <c r="P25">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="2">
+        <f>P25/$C25</f>
+        <v>3.6876385745433091E-5</v>
+      </c>
+      <c r="R25">
+        <v>16</v>
+      </c>
+      <c r="S25" s="2">
+        <f>R25/$C25</f>
+        <v>3.6876385745433091E-5</v>
+      </c>
+      <c r="T25">
+        <v>20</v>
+      </c>
+      <c r="U25" s="2">
+        <f>T25/$C25</f>
+        <v>4.609548218179136E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C26" s="194">
-        <v>433882</v>
+        <v>190018</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E26" s="2">
         <f>D26/$C26</f>
-        <v>1.3828644654537409E-5</v>
+        <v>1.5787977981033376E-5</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G26" s="2">
         <f>F26/$C26</f>
-        <v>2.304774109089568E-5</v>
+        <v>2.10506373080445E-5</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I26" s="2">
         <f>H26/$C26</f>
-        <v>2.304774109089568E-5</v>
+        <v>2.10506373080445E-5</v>
       </c>
       <c r="J26">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K26" s="2">
         <f>J26/$C26</f>
-        <v>2.304774109089568E-5</v>
+        <v>2.10506373080445E-5</v>
       </c>
       <c r="L26">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M26" s="2">
         <f>L26/$C26</f>
-        <v>2.5352515199985251E-5</v>
+        <v>3.1575955962066751E-5</v>
       </c>
       <c r="N26">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O26" s="2">
         <f>N26/$C26</f>
-        <v>3.2266837527253956E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>3.1575955962066751E-5</v>
+      </c>
+      <c r="P26">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="2">
+        <f>P26/$C26</f>
+        <v>4.2101274616088999E-5</v>
+      </c>
+      <c r="R26">
+        <v>8</v>
+      </c>
+      <c r="S26" s="2">
+        <f>R26/$C26</f>
+        <v>4.2101274616088999E-5</v>
+      </c>
+      <c r="T26">
+        <v>8</v>
+      </c>
+      <c r="U26" s="2">
+        <f>T26/$C26</f>
+        <v>4.2101274616088999E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>21</v>
       </c>
@@ -14071,61 +15051,103 @@
         <f>N27/$C27</f>
         <v>3.2193865605244676E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="2">
+        <f>P27/$C27</f>
+        <v>3.6583938187778041E-5</v>
+      </c>
+      <c r="R27">
+        <v>27</v>
+      </c>
+      <c r="S27" s="2">
+        <f>R27/$C27</f>
+        <v>3.9510653242800279E-5</v>
+      </c>
+      <c r="T27">
+        <v>28</v>
+      </c>
+      <c r="U27" s="2">
+        <f>T27/$C27</f>
+        <v>4.0974010770311405E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C28" s="194">
-        <v>190018</v>
+        <v>125755</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2">
         <f>D28/$C28</f>
-        <v>1.5787977981033376E-5</v>
+        <v>7.9519701005924223E-6</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2">
         <f>F28/$C28</f>
-        <v>2.10506373080445E-5</v>
+        <v>1.5903940201184845E-5</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" s="2">
         <f>H28/$C28</f>
-        <v>2.10506373080445E-5</v>
+        <v>1.5903940201184845E-5</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K28" s="2">
         <f>J28/$C28</f>
-        <v>2.10506373080445E-5</v>
+        <v>1.5903940201184845E-5</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M28" s="2">
         <f>L28/$C28</f>
-        <v>3.1575955962066751E-5</v>
+        <v>1.5903940201184845E-5</v>
       </c>
       <c r="N28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O28" s="2">
         <f>N28/$C28</f>
-        <v>3.1575955962066751E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>2.3855910301777267E-5</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="2">
+        <f>P28/$C28</f>
+        <v>2.3855910301777267E-5</v>
+      </c>
+      <c r="R28">
+        <v>4</v>
+      </c>
+      <c r="S28" s="2">
+        <f>R28/$C28</f>
+        <v>3.1807880402369689E-5</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28" s="2">
+        <f>T28/$C28</f>
+        <v>3.9759850502962108E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29">
         <v>17</v>
       </c>
@@ -14177,61 +15199,103 @@
         <f>N29/$C29</f>
         <v>2.8234948654745871E-5</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="2">
+        <f>P29/$C29</f>
+        <v>2.8234948654745871E-5</v>
+      </c>
+      <c r="R29">
+        <v>11</v>
+      </c>
+      <c r="S29" s="2">
+        <f>R29/$C29</f>
+        <v>3.1058443520220462E-5</v>
+      </c>
+      <c r="T29">
+        <v>13</v>
+      </c>
+      <c r="U29" s="2">
+        <f>T29/$C29</f>
+        <v>3.6705433251169636E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="194">
+        <v>84230</v>
+      </c>
+      <c r="D30">
         <v>1</v>
-      </c>
-      <c r="C30" s="194">
-        <v>218826</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
       </c>
       <c r="E30" s="2">
         <f>D30/$C30</f>
-        <v>9.1396817562812457E-6</v>
+        <v>1.1872254541137362E-5</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="2">
         <f>F30/$C30</f>
-        <v>9.1396817562812457E-6</v>
+        <v>1.1872254541137362E-5</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30" s="2">
         <f>H30/$C30</f>
-        <v>1.370952263442187E-5</v>
+        <v>1.1872254541137362E-5</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K30" s="2">
         <f>J30/$C30</f>
-        <v>1.370952263442187E-5</v>
+        <v>1.1872254541137362E-5</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
         <f>L30/$C30</f>
-        <v>2.2849204390703114E-5</v>
+        <v>1.1872254541137362E-5</v>
       </c>
       <c r="N30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O30" s="2">
         <f>N30/$C30</f>
-        <v>2.741904526884374E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>1.1872254541137362E-5</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="2">
+        <f>P30/$C30</f>
+        <v>2.3744509082274723E-5</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30" s="2">
+        <f>R30/$C30</f>
+        <v>2.3744509082274723E-5</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30" s="2">
+        <f>T30/$C30</f>
+        <v>3.5616763623412088E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31">
         <v>26</v>
       </c>
@@ -14283,114 +15347,177 @@
         <f>N31/$C31</f>
         <v>2.6947096113555064E-5</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="2">
+        <f>P31/$C31</f>
+        <v>4.0420644170332597E-5</v>
+      </c>
+      <c r="R31">
+        <v>5</v>
+      </c>
+      <c r="S31" s="2">
+        <f>R31/$C31</f>
+        <v>3.3683870141943825E-5</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+      <c r="U31" s="2">
+        <f>T31/$C31</f>
+        <v>3.3683870141943825E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C32" s="194">
-        <v>125755</v>
+        <v>91790</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" s="2">
         <f>D32/$C32</f>
-        <v>7.9519701005924223E-6</v>
+        <v>1.0894432944765224E-5</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="2">
         <f>F32/$C32</f>
-        <v>1.5903940201184845E-5</v>
+        <v>3.2683298834295673E-5</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" s="2">
         <f>H32/$C32</f>
-        <v>1.5903940201184845E-5</v>
+        <v>3.2683298834295673E-5</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" s="2">
         <f>J32/$C32</f>
-        <v>1.5903940201184845E-5</v>
+        <v>3.2683298834295673E-5</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32" s="2">
         <f>L32/$C32</f>
-        <v>1.5903940201184845E-5</v>
+        <v>3.2683298834295673E-5</v>
       </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="O32" s="2">
         <f>N32/$C32</f>
-        <v>2.3855910301777267E-5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>3.2683298834295673E-5</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="2">
+        <f>P32/$C32</f>
+        <v>3.2683298834295673E-5</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32" s="2">
+        <f>R32/$C32</f>
+        <v>3.2683298834295673E-5</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32" s="2">
+        <f>T32/$C32</f>
+        <v>3.2683298834295673E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" s="194">
-        <v>695241</v>
+        <v>218826</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2">
         <f>D33/$C33</f>
-        <v>1.1506801238707153E-5</v>
+        <v>9.1396817562812457E-6</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G33" s="2">
         <f>F33/$C33</f>
-        <v>1.1506801238707153E-5</v>
+        <v>9.1396817562812457E-6</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I33" s="2">
         <f>H33/$C33</f>
-        <v>1.5821851703222336E-5</v>
+        <v>1.370952263442187E-5</v>
       </c>
       <c r="J33">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K33" s="2">
         <f>J33/$C33</f>
-        <v>1.5821851703222336E-5</v>
+        <v>1.370952263442187E-5</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M33" s="2">
         <f>L33/$C33</f>
-        <v>1.8698552012899125E-5</v>
+        <v>2.2849204390703114E-5</v>
       </c>
       <c r="N33">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O33" s="2">
         <f>N33/$C33</f>
-        <v>2.1575252322575912E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>2.741904526884374E-5</v>
+      </c>
+      <c r="P33">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="2">
+        <f>P33/$C33</f>
+        <v>3.1988886146984363E-5</v>
+      </c>
+      <c r="R33">
+        <v>7</v>
+      </c>
+      <c r="S33" s="2">
+        <f>R33/$C33</f>
+        <v>3.1988886146984363E-5</v>
+      </c>
+      <c r="T33">
+        <v>7</v>
+      </c>
+      <c r="U33" s="2">
+        <f>T33/$C33</f>
+        <v>3.1988886146984363E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34">
         <v>30</v>
       </c>
@@ -14442,334 +15569,481 @@
         <f>N34/$C34</f>
         <v>1.7837394313438694E-5</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="2">
+        <f>P34/$C34</f>
+        <v>1.7837394313438694E-5</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34" s="2">
+        <f>R34/$C34</f>
+        <v>2.675609147015804E-5</v>
+      </c>
+      <c r="T34">
+        <v>3</v>
+      </c>
+      <c r="U34" s="2">
+        <f>T34/$C34</f>
+        <v>2.675609147015804E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C35" s="194">
-        <v>116361</v>
+        <v>695241</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E35" s="2">
         <f>D35/$C35</f>
-        <v>8.5939447065597577E-6</v>
+        <v>1.1506801238707153E-5</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G35" s="2">
         <f>F35/$C35</f>
-        <v>8.5939447065597577E-6</v>
+        <v>1.1506801238707153E-5</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I35" s="2">
         <f>H35/$C35</f>
-        <v>8.5939447065597577E-6</v>
+        <v>1.5821851703222336E-5</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K35" s="2">
         <f>J35/$C35</f>
-        <v>1.7187889413119515E-5</v>
+        <v>1.5821851703222336E-5</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M35" s="2">
         <f>L35/$C35</f>
-        <v>1.7187889413119515E-5</v>
+        <v>1.8698552012899125E-5</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O35" s="2">
         <f>N35/$C35</f>
-        <v>1.7187889413119515E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>2.1575252322575912E-5</v>
+      </c>
+      <c r="P35">
+        <v>16</v>
+      </c>
+      <c r="Q35" s="2">
+        <f>P35/$C35</f>
+        <v>2.3013602477414306E-5</v>
+      </c>
+      <c r="R35">
+        <v>16</v>
+      </c>
+      <c r="S35" s="2">
+        <f>R35/$C35</f>
+        <v>2.3013602477414306E-5</v>
+      </c>
+      <c r="T35">
+        <v>18</v>
+      </c>
+      <c r="U35" s="2">
+        <f>T35/$C35</f>
+        <v>2.5890302787091096E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
       <c r="C36" s="194">
-        <v>239754</v>
+        <v>196430</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" s="2">
         <f>D36/$C36</f>
-        <v>4.1709418820958149E-6</v>
+        <v>5.0908720663849722E-6</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="2">
         <f>F36/$C36</f>
-        <v>4.1709418820958149E-6</v>
+        <v>1.0181744132769944E-5</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" s="2">
         <f>H36/$C36</f>
-        <v>4.1709418820958149E-6</v>
+        <v>1.0181744132769944E-5</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K36" s="2">
         <f>J36/$C36</f>
-        <v>4.1709418820958149E-6</v>
+        <v>1.5272616199154916E-5</v>
       </c>
       <c r="L36">
         <v>3</v>
       </c>
       <c r="M36" s="2">
         <f>L36/$C36</f>
-        <v>1.2512825646287445E-5</v>
+        <v>1.5272616199154916E-5</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O36" s="2">
         <f>N36/$C36</f>
-        <v>1.668376752838326E-5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>1.5272616199154916E-5</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="2">
+        <f>P36/$C36</f>
+        <v>1.5272616199154916E-5</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36" s="2">
+        <f>R36/$C36</f>
+        <v>1.5272616199154916E-5</v>
+      </c>
+      <c r="T36">
+        <v>5</v>
+      </c>
+      <c r="U36" s="2">
+        <f>T36/$C36</f>
+        <v>2.5454360331924858E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="194">
-        <v>576383</v>
+        <v>239754</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2">
         <f>D37/$C37</f>
-        <v>6.939829939467333E-6</v>
+        <v>4.1709418820958149E-6</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37" s="2">
         <f>F37/$C37</f>
-        <v>6.939829939467333E-6</v>
+        <v>4.1709418820958149E-6</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2">
         <f>H37/$C37</f>
-        <v>6.939829939467333E-6</v>
+        <v>4.1709418820958149E-6</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2">
         <f>J37/$C37</f>
-        <v>8.6747874243341668E-6</v>
+        <v>4.1709418820958149E-6</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M37" s="2">
         <f>L37/$C37</f>
-        <v>1.0409744909201E-5</v>
+        <v>1.2512825646287445E-5</v>
       </c>
       <c r="N37">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O37" s="2">
         <f>N37/$C37</f>
-        <v>1.5614617363801499E-5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>1.668376752838326E-5</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="2">
+        <f>P37/$C37</f>
+        <v>1.668376752838326E-5</v>
+      </c>
+      <c r="R37">
+        <v>5</v>
+      </c>
+      <c r="S37" s="2">
+        <f>R37/$C37</f>
+        <v>2.0854709410479075E-5</v>
+      </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
+      <c r="U37" s="2">
+        <f>T37/$C37</f>
+        <v>2.502565129257489E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C38" s="194">
-        <v>196430</v>
+        <v>576383</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E38" s="2">
         <f>D38/$C38</f>
-        <v>5.0908720663849722E-6</v>
+        <v>6.939829939467333E-6</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G38" s="2">
         <f>F38/$C38</f>
-        <v>1.0181744132769944E-5</v>
+        <v>6.939829939467333E-6</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I38" s="2">
         <f>H38/$C38</f>
-        <v>1.0181744132769944E-5</v>
+        <v>6.939829939467333E-6</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K38" s="2">
         <f>J38/$C38</f>
-        <v>1.5272616199154916E-5</v>
+        <v>8.6747874243341668E-6</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M38" s="2">
         <f>L38/$C38</f>
-        <v>1.5272616199154916E-5</v>
+        <v>1.0409744909201E-5</v>
       </c>
       <c r="N38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O38" s="2">
         <f>N38/$C38</f>
-        <v>1.5272616199154916E-5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>1.5614617363801499E-5</v>
+      </c>
+      <c r="P38">
+        <v>9</v>
+      </c>
+      <c r="Q38" s="2">
+        <f>P38/$C38</f>
+        <v>1.5614617363801499E-5</v>
+      </c>
+      <c r="R38">
+        <v>10</v>
+      </c>
+      <c r="S38" s="2">
+        <f>R38/$C38</f>
+        <v>1.7349574848668334E-5</v>
+      </c>
+      <c r="T38">
+        <v>11</v>
+      </c>
+      <c r="U38" s="2">
+        <f>T38/$C38</f>
+        <v>1.9084532333535168E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C39" s="194">
-        <v>71542</v>
+        <v>263169</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="2">
         <f>D39/$C39</f>
-        <v>0</v>
+        <v>3.7998396467669062E-6</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="2">
         <f>F39/$C39</f>
-        <v>0</v>
+        <v>3.7998396467669062E-6</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="2">
         <f>H39/$C39</f>
-        <v>0</v>
+        <v>3.7998396467669062E-6</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2">
         <f>J39/$C39</f>
-        <v>0</v>
+        <v>3.7998396467669062E-6</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39" s="2">
         <f>L39/$C39</f>
-        <v>1.3977803248441475E-5</v>
+        <v>3.7998396467669062E-6</v>
       </c>
       <c r="N39">
         <v>1</v>
       </c>
       <c r="O39" s="2">
         <f>N39/$C39</f>
-        <v>1.3977803248441475E-5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>3.7998396467669062E-6</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2">
+        <f>P39/$C39</f>
+        <v>3.7998396467669062E-6</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39" s="2">
+        <f>R39/$C39</f>
+        <v>3.7998396467669062E-6</v>
+      </c>
+      <c r="T39">
+        <v>5</v>
+      </c>
+      <c r="U39" s="2">
+        <f>T39/$C39</f>
+        <v>1.8999198233834532E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C40" s="194">
-        <v>75136</v>
+        <v>116361</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="2">
         <f>D40/$C40</f>
-        <v>0</v>
+        <v>8.5939447065597577E-6</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="2">
         <f>F40/$C40</f>
-        <v>0</v>
+        <v>8.5939447065597577E-6</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2">
         <f>H40/$C40</f>
-        <v>0</v>
+        <v>8.5939447065597577E-6</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" s="2">
         <f>J40/$C40</f>
-        <v>0</v>
+        <v>1.7187889413119515E-5</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" s="2">
         <f>L40/$C40</f>
-        <v>1.3309199318568995E-5</v>
+        <v>1.7187889413119515E-5</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" s="2">
         <f>N40/$C40</f>
-        <v>1.3309199318568995E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>1.7187889413119515E-5</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="2">
+        <f>P40/$C40</f>
+        <v>1.7187889413119515E-5</v>
+      </c>
+      <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40" s="2">
+        <f>R40/$C40</f>
+        <v>1.7187889413119515E-5</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40" s="2">
+        <f>T40/$C40</f>
+        <v>1.7187889413119515E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C41" s="194">
-        <v>80012</v>
+        <v>180650</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -14807,75 +16081,117 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" s="2">
         <f>N41/$C41</f>
-        <v>1.2498125281207818E-5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>1.1071132023249378E-5</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="2">
+        <f>P41/$C41</f>
+        <v>1.1071132023249378E-5</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41" s="2">
+        <f>R41/$C41</f>
+        <v>1.6606698034874067E-5</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41" s="2">
+        <f>T41/$C41</f>
+        <v>1.6606698034874067E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C42" s="194">
-        <v>84230</v>
+        <v>128058</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2">
         <f>D42/$C42</f>
-        <v>1.1872254541137362E-5</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="2">
         <f>F42/$C42</f>
-        <v>1.1872254541137362E-5</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
         <f>H42/$C42</f>
-        <v>1.1872254541137362E-5</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2">
         <f>J42/$C42</f>
-        <v>1.1872254541137362E-5</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="2">
         <f>L42/$C42</f>
-        <v>1.1872254541137362E-5</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="2">
         <f>N42/$C42</f>
-        <v>1.1872254541137362E-5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <f>P42/$C42</f>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
+        <f>R42/$C42</f>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42" s="2">
+        <f>T42/$C42</f>
+        <v>1.5617923128582361E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C43" s="194">
-        <v>180650</v>
+        <v>71542</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -14906,82 +16222,124 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="2">
         <f>L43/$C43</f>
-        <v>0</v>
+        <v>1.3977803248441475E-5</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O43" s="2">
         <f>N43/$C43</f>
-        <v>1.1071132023249378E-5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>1.3977803248441475E-5</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="2">
+        <f>P43/$C43</f>
+        <v>1.3977803248441475E-5</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43" s="2">
+        <f>R43/$C43</f>
+        <v>1.3977803248441475E-5</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43" s="2">
+        <f>T43/$C43</f>
+        <v>1.3977803248441475E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C44" s="194">
-        <v>133303</v>
+        <v>75136</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2">
         <f>D44/$C44</f>
-        <v>7.5017066382602045E-6</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="2">
         <f>F44/$C44</f>
-        <v>7.5017066382602045E-6</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2">
         <f>H44/$C44</f>
-        <v>7.5017066382602045E-6</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2">
         <f>J44/$C44</f>
-        <v>7.5017066382602045E-6</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44" s="2">
         <f>L44/$C44</f>
-        <v>7.5017066382602045E-6</v>
+        <v>1.3309199318568995E-5</v>
       </c>
       <c r="N44">
         <v>1</v>
       </c>
       <c r="O44" s="2">
         <f>N44/$C44</f>
-        <v>7.5017066382602045E-6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>1.3309199318568995E-5</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="2">
+        <f>P44/$C44</f>
+        <v>1.3309199318568995E-5</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44" s="2">
+        <f>R44/$C44</f>
+        <v>1.3309199318568995E-5</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44" s="2">
+        <f>T44/$C44</f>
+        <v>1.3309199318568995E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C45" s="194">
-        <v>150289</v>
+        <v>80012</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -15012,82 +16370,124 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="2">
         <f>L45/$C45</f>
-        <v>6.6538469215977215E-6</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>1</v>
       </c>
       <c r="O45" s="2">
         <f>N45/$C45</f>
-        <v>6.6538469215977215E-6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>1.2498125281207818E-5</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="2">
+        <f>P45/$C45</f>
+        <v>1.2498125281207818E-5</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45" s="2">
+        <f>R45/$C45</f>
+        <v>1.2498125281207818E-5</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45" s="2">
+        <f>T45/$C45</f>
+        <v>1.2498125281207818E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C46" s="194">
-        <v>263169</v>
+        <v>133303</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" s="2">
         <f>D46/$C46</f>
-        <v>3.7998396467669062E-6</v>
+        <v>7.5017066382602045E-6</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" s="2">
         <f>F46/$C46</f>
-        <v>3.7998396467669062E-6</v>
+        <v>7.5017066382602045E-6</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" s="2">
         <f>H46/$C46</f>
-        <v>3.7998396467669062E-6</v>
+        <v>7.5017066382602045E-6</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46" s="2">
         <f>J46/$C46</f>
-        <v>3.7998396467669062E-6</v>
+        <v>7.5017066382602045E-6</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46" s="2">
         <f>L46/$C46</f>
-        <v>3.7998396467669062E-6</v>
+        <v>7.5017066382602045E-6</v>
       </c>
       <c r="N46">
         <v>1</v>
       </c>
       <c r="O46" s="2">
         <f>N46/$C46</f>
-        <v>3.7998396467669062E-6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>7.5017066382602045E-6</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="2">
+        <f>P46/$C46</f>
+        <v>7.5017066382602045E-6</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46" s="2">
+        <f>R46/$C46</f>
+        <v>7.5017066382602045E-6</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46" s="2">
+        <f>T46/$C46</f>
+        <v>7.5017066382602045E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C47" s="194">
-        <v>128058</v>
+        <v>150289</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -15118,21 +16518,42 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="2">
         <f>L47/$C47</f>
-        <v>0</v>
+        <v>6.6538469215977215E-6</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="2">
         <f>N47/$C47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>6.6538469215977215E-6</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="2">
+        <f>P47/$C47</f>
+        <v>6.6538469215977215E-6</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47" s="2">
+        <f>R47/$C47</f>
+        <v>6.6538469215977215E-6</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47" s="2">
+        <f>T47/$C47</f>
+        <v>6.6538469215977215E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48">
         <v>38</v>
       </c>
@@ -15184,8 +16605,29 @@
         <f>N48/$C48</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <f>P48/$C48</f>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2">
+        <f>R48/$C48</f>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2">
+        <f>T48/$C48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49">
         <v>39</v>
       </c>
@@ -15237,8 +16679,29 @@
         <f>N49/$C49</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <f>P49/$C49</f>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
+        <f>R49/$C49</f>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
+        <f>T49/$C49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50">
         <v>45</v>
       </c>
@@ -15290,10 +16753,31 @@
         <f>N50/$C50</f>
         <v>0</v>
       </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <f>P50/$C50</f>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50" s="2">
+        <f>R50/$C50</f>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
+        <f>T50/$C50</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O50">
-    <sortCondition descending="1" ref="O1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U50">
+    <sortCondition descending="1" ref="U1"/>
   </sortState>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15369,78 +16853,78 @@
     </row>
     <row r="4" spans="1:12" ht="13.15" customHeight="1">
       <c r="A4" s="46"/>
-      <c r="B4" s="259" t="s">
+      <c r="B4" s="206" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="260"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="260"/>
-      <c r="F4" s="260"/>
-      <c r="G4" s="260"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="260"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="260"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="207"/>
     </row>
     <row r="5" spans="1:12" ht="13.15" customHeight="1">
       <c r="A5" s="46"/>
-      <c r="B5" s="259" t="s">
+      <c r="B5" s="206" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="260"/>
-      <c r="D5" s="260"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
-      <c r="J5" s="260"/>
-      <c r="K5" s="260"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="207"/>
+      <c r="K5" s="207"/>
     </row>
     <row r="6" spans="1:12" ht="13.15" customHeight="1">
       <c r="A6" s="46"/>
-      <c r="B6" s="259" t="s">
+      <c r="B6" s="206" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="260"/>
-      <c r="J6" s="260"/>
-      <c r="K6" s="260"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
     </row>
     <row r="7" spans="1:12" ht="13.15" customHeight="1">
       <c r="A7" s="46"/>
-      <c r="B7" s="259" t="s">
+      <c r="B7" s="206" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="260"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="260"/>
-      <c r="H7" s="260"/>
-      <c r="I7" s="260"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="260"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="207"/>
     </row>
     <row r="8" spans="1:12" ht="13.15" customHeight="1">
       <c r="A8" s="46"/>
-      <c r="B8" s="259" t="s">
+      <c r="B8" s="206" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="260"/>
-      <c r="I8" s="260"/>
-      <c r="J8" s="260"/>
-      <c r="K8" s="260"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="207"/>
     </row>
     <row r="9" spans="1:12" ht="11.25" customHeight="1">
       <c r="A9" s="46"/>
@@ -15477,15 +16961,15 @@
       <c r="K10" s="136"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A11" s="237" t="s">
+      <c r="A11" s="216" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="238"/>
-      <c r="C11" s="243" t="s">
+      <c r="B11" s="217"/>
+      <c r="C11" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="244"/>
-      <c r="E11" s="245"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="224"/>
       <c r="F11" s="135" t="s">
         <v>197</v>
       </c>
@@ -15506,8 +16990,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A12" s="239"/>
-      <c r="B12" s="240"/>
+      <c r="A12" s="218"/>
+      <c r="B12" s="219"/>
       <c r="C12" s="125"/>
       <c r="D12" s="131"/>
       <c r="E12" s="130"/>
@@ -15525,8 +17009,8 @@
       <c r="K12" s="124"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A13" s="241"/>
-      <c r="B13" s="242"/>
+      <c r="A13" s="220"/>
+      <c r="B13" s="221"/>
       <c r="C13" s="123" t="s">
         <v>188</v>
       </c>
@@ -15569,10 +17053,10 @@
       <c r="K14" s="170"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="235" t="s">
+      <c r="A15" s="233" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="236"/>
+      <c r="B15" s="215"/>
       <c r="C15" s="101">
         <v>13951791</v>
       </c>
@@ -15773,10 +17257,10 @@
       <c r="K22" s="144"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="235" t="s">
+      <c r="A23" s="233" t="s">
         <v>210</v>
       </c>
-      <c r="B23" s="236"/>
+      <c r="B23" s="215"/>
       <c r="C23" s="101">
         <v>9656295</v>
       </c>
@@ -16706,15 +18190,15 @@
       <c r="K56" s="136"/>
     </row>
     <row r="57" spans="1:11" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A57" s="237" t="s">
+      <c r="A57" s="216" t="s">
         <v>199</v>
       </c>
-      <c r="B57" s="238"/>
-      <c r="C57" s="243" t="s">
+      <c r="B57" s="217"/>
+      <c r="C57" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="D57" s="244"/>
-      <c r="E57" s="245"/>
+      <c r="D57" s="223"/>
+      <c r="E57" s="224"/>
       <c r="F57" s="135" t="s">
         <v>197</v>
       </c>
@@ -16735,8 +18219,8 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A58" s="239"/>
-      <c r="B58" s="240"/>
+      <c r="A58" s="218"/>
+      <c r="B58" s="219"/>
       <c r="C58" s="125"/>
       <c r="D58" s="131"/>
       <c r="E58" s="130"/>
@@ -16754,8 +18238,8 @@
       <c r="K58" s="124"/>
     </row>
     <row r="59" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A59" s="241"/>
-      <c r="B59" s="242"/>
+      <c r="A59" s="220"/>
+      <c r="B59" s="221"/>
       <c r="C59" s="123" t="s">
         <v>188</v>
       </c>
@@ -17780,10 +19264,10 @@
       <c r="K94" s="150"/>
     </row>
     <row r="95" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A95" s="235" t="s">
+      <c r="A95" s="233" t="s">
         <v>205</v>
       </c>
-      <c r="B95" s="236"/>
+      <c r="B95" s="215"/>
       <c r="C95" s="162">
         <v>81193</v>
       </c>
@@ -17825,10 +19309,10 @@
       <c r="K96" s="150"/>
     </row>
     <row r="97" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A97" s="235" t="s">
+      <c r="A97" s="233" t="s">
         <v>204</v>
       </c>
-      <c r="B97" s="236"/>
+      <c r="B97" s="215"/>
       <c r="C97" s="162">
         <v>56265</v>
       </c>
@@ -18092,15 +19576,15 @@
       <c r="K108" s="136"/>
     </row>
     <row r="109" spans="1:11" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A109" s="237" t="s">
+      <c r="A109" s="216" t="s">
         <v>199</v>
       </c>
-      <c r="B109" s="238"/>
-      <c r="C109" s="243" t="s">
+      <c r="B109" s="217"/>
+      <c r="C109" s="222" t="s">
         <v>198</v>
       </c>
-      <c r="D109" s="244"/>
-      <c r="E109" s="245"/>
+      <c r="D109" s="223"/>
+      <c r="E109" s="224"/>
       <c r="F109" s="135" t="s">
         <v>197</v>
       </c>
@@ -18121,8 +19605,8 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A110" s="239"/>
-      <c r="B110" s="240"/>
+      <c r="A110" s="218"/>
+      <c r="B110" s="219"/>
       <c r="C110" s="125"/>
       <c r="D110" s="131"/>
       <c r="E110" s="130"/>
@@ -18140,8 +19624,8 @@
       <c r="K110" s="124"/>
     </row>
     <row r="111" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A111" s="241"/>
-      <c r="B111" s="242"/>
+      <c r="A111" s="220"/>
+      <c r="B111" s="221"/>
       <c r="C111" s="123" t="s">
         <v>188</v>
       </c>
@@ -18184,10 +19668,10 @@
       <c r="K112" s="107"/>
     </row>
     <row r="113" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A113" s="235" t="s">
+      <c r="A113" s="233" t="s">
         <v>179</v>
       </c>
-      <c r="B113" s="236"/>
+      <c r="B113" s="215"/>
       <c r="C113" s="101">
         <v>24928</v>
       </c>
@@ -18228,10 +19712,10 @@
       <c r="K114" s="99"/>
     </row>
     <row r="115" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A115" s="246" t="s">
+      <c r="A115" s="214" t="s">
         <v>178</v>
       </c>
-      <c r="B115" s="247"/>
+      <c r="B115" s="225"/>
       <c r="C115" s="93">
         <v>12012</v>
       </c>
@@ -18421,10 +19905,10 @@
       <c r="K121" s="90"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A122" s="246" t="s">
+      <c r="A122" s="214" t="s">
         <v>176</v>
       </c>
-      <c r="B122" s="247"/>
+      <c r="B122" s="225"/>
       <c r="C122" s="93">
         <v>2597</v>
       </c>
@@ -18546,10 +20030,10 @@
       <c r="K126" s="90"/>
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A127" s="246" t="s">
+      <c r="A127" s="214" t="s">
         <v>174</v>
       </c>
-      <c r="B127" s="247"/>
+      <c r="B127" s="225"/>
       <c r="C127" s="93">
         <v>7262</v>
       </c>
@@ -18671,10 +20155,10 @@
       <c r="K131" s="90"/>
     </row>
     <row r="132" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A132" s="246" t="s">
+      <c r="A132" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="B132" s="236"/>
+      <c r="B132" s="215"/>
       <c r="C132" s="93">
         <v>3057</v>
       </c>
@@ -18888,27 +20372,27 @@
       <c r="I145" s="71"/>
     </row>
     <row r="146" spans="1:14" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A146" s="248" t="s">
+      <c r="A146" s="235" t="s">
         <v>166</v>
       </c>
-      <c r="B146" s="249"/>
-      <c r="C146" s="252" t="s">
+      <c r="B146" s="236"/>
+      <c r="C146" s="239" t="s">
         <v>165</v>
       </c>
-      <c r="D146" s="253"/>
-      <c r="E146" s="254"/>
-      <c r="F146" s="266" t="s">
+      <c r="D146" s="240"/>
+      <c r="E146" s="241"/>
+      <c r="F146" s="244" t="s">
         <v>164</v>
       </c>
-      <c r="G146" s="267"/>
-      <c r="H146" s="268" t="s">
+      <c r="G146" s="245"/>
+      <c r="H146" s="195" t="s">
         <v>163</v>
       </c>
-      <c r="I146" s="269"/>
+      <c r="I146" s="196"/>
     </row>
     <row r="147" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A147" s="250"/>
-      <c r="B147" s="251"/>
+      <c r="A147" s="237"/>
+      <c r="B147" s="238"/>
       <c r="C147" s="70">
         <v>43891</v>
       </c>
@@ -18942,10 +20426,10 @@
       <c r="I148" s="60"/>
     </row>
     <row r="149" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A149" s="270" t="s">
+      <c r="A149" s="197" t="s">
         <v>160</v>
       </c>
-      <c r="B149" s="271"/>
+      <c r="B149" s="198"/>
       <c r="C149" s="59">
         <v>13951791</v>
       </c>
@@ -18969,10 +20453,10 @@
       </c>
     </row>
     <row r="150" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A150" s="264" t="s">
+      <c r="A150" s="199" t="s">
         <v>159</v>
       </c>
-      <c r="B150" s="265"/>
+      <c r="B150" s="200"/>
       <c r="C150" s="59">
         <v>9656295</v>
       </c>
@@ -18996,10 +20480,10 @@
       </c>
     </row>
     <row r="151" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A151" s="264" t="s">
+      <c r="A151" s="199" t="s">
         <v>158</v>
       </c>
-      <c r="B151" s="265"/>
+      <c r="B151" s="200"/>
       <c r="C151" s="59">
         <v>4214303</v>
       </c>
@@ -19023,10 +20507,10 @@
       </c>
     </row>
     <row r="152" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A152" s="264" t="s">
+      <c r="A152" s="199" t="s">
         <v>157</v>
       </c>
-      <c r="B152" s="265"/>
+      <c r="B152" s="200"/>
       <c r="C152" s="59">
         <v>56265</v>
       </c>
@@ -19050,10 +20534,10 @@
       </c>
     </row>
     <row r="153" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A153" s="264" t="s">
+      <c r="A153" s="199" t="s">
         <v>156</v>
       </c>
-      <c r="B153" s="265"/>
+      <c r="B153" s="200"/>
       <c r="C153" s="59">
         <v>24928</v>
       </c>
@@ -19132,90 +20616,90 @@
       <c r="N157" s="5"/>
     </row>
     <row r="158" spans="1:14" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A158" s="202" t="s">
+      <c r="A158" s="210" t="s">
         <v>142</v>
       </c>
-      <c r="B158" s="203"/>
-      <c r="C158" s="261" t="s">
+      <c r="B158" s="211"/>
+      <c r="C158" s="208" t="s">
         <v>153</v>
       </c>
-      <c r="D158" s="226" t="s">
+      <c r="D158" s="228" t="s">
         <v>152</v>
       </c>
-      <c r="E158" s="227"/>
-      <c r="F158" s="228"/>
-      <c r="G158" s="232" t="s">
+      <c r="E158" s="231"/>
+      <c r="F158" s="232"/>
+      <c r="G158" s="203" t="s">
         <v>139</v>
       </c>
-      <c r="H158" s="233"/>
-      <c r="I158" s="234"/>
-      <c r="J158" s="226" t="s">
+      <c r="H158" s="204"/>
+      <c r="I158" s="205"/>
+      <c r="J158" s="228" t="s">
         <v>138</v>
       </c>
-      <c r="K158" s="227"/>
-      <c r="L158" s="228"/>
-      <c r="M158" s="229" t="s">
+      <c r="K158" s="231"/>
+      <c r="L158" s="232"/>
+      <c r="M158" s="250" t="s">
         <v>151</v>
       </c>
-      <c r="N158" s="221" t="s">
+      <c r="N158" s="246" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:14">
-      <c r="A159" s="202"/>
-      <c r="B159" s="209"/>
-      <c r="C159" s="263"/>
-      <c r="D159" s="224" t="s">
+      <c r="A159" s="210"/>
+      <c r="B159" s="234"/>
+      <c r="C159" s="242"/>
+      <c r="D159" s="249" t="s">
         <v>134</v>
       </c>
-      <c r="E159" s="224" t="s">
+      <c r="E159" s="249" t="s">
         <v>136</v>
       </c>
-      <c r="F159" s="224" t="s">
+      <c r="F159" s="249" t="s">
         <v>135</v>
       </c>
-      <c r="G159" s="212" t="s">
+      <c r="G159" s="255" t="s">
         <v>134</v>
       </c>
-      <c r="H159" s="212" t="s">
+      <c r="H159" s="255" t="s">
         <v>136</v>
       </c>
-      <c r="I159" s="214" t="s">
+      <c r="I159" s="259" t="s">
         <v>135</v>
       </c>
-      <c r="J159" s="224" t="s">
+      <c r="J159" s="249" t="s">
         <v>134</v>
       </c>
-      <c r="K159" s="224" t="s">
+      <c r="K159" s="249" t="s">
         <v>133</v>
       </c>
-      <c r="L159" s="224" t="s">
+      <c r="L159" s="249" t="s">
         <v>132</v>
       </c>
-      <c r="M159" s="230"/>
-      <c r="N159" s="222"/>
+      <c r="M159" s="251"/>
+      <c r="N159" s="247"/>
     </row>
     <row r="160" spans="1:14">
-      <c r="A160" s="204"/>
-      <c r="B160" s="205"/>
-      <c r="C160" s="225"/>
-      <c r="D160" s="225"/>
-      <c r="E160" s="225"/>
-      <c r="F160" s="225"/>
-      <c r="G160" s="213"/>
-      <c r="H160" s="213"/>
-      <c r="I160" s="215"/>
-      <c r="J160" s="225"/>
-      <c r="K160" s="225"/>
-      <c r="L160" s="225"/>
-      <c r="M160" s="231"/>
-      <c r="N160" s="223"/>
+      <c r="A160" s="212"/>
+      <c r="B160" s="213"/>
+      <c r="C160" s="243"/>
+      <c r="D160" s="243"/>
+      <c r="E160" s="243"/>
+      <c r="F160" s="243"/>
+      <c r="G160" s="256"/>
+      <c r="H160" s="256"/>
+      <c r="I160" s="260"/>
+      <c r="J160" s="243"/>
+      <c r="K160" s="243"/>
+      <c r="L160" s="243"/>
+      <c r="M160" s="252"/>
+      <c r="N160" s="248"/>
     </row>
     <row r="161" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A161" s="216" t="s">
+      <c r="A161" s="261" t="s">
         <v>131</v>
       </c>
-      <c r="B161" s="217"/>
+      <c r="B161" s="262"/>
       <c r="C161" s="38">
         <v>-1786</v>
       </c>
@@ -19254,10 +20738,10 @@
       </c>
     </row>
     <row r="162" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A162" s="218" t="s">
+      <c r="A162" s="263" t="s">
         <v>130</v>
       </c>
-      <c r="B162" s="219"/>
+      <c r="B162" s="264"/>
       <c r="C162" s="38">
         <v>-45</v>
       </c>
@@ -20262,10 +21746,10 @@
       </c>
     </row>
     <row r="186" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A186" s="220" t="s">
+      <c r="A186" s="265" t="s">
         <v>106</v>
       </c>
-      <c r="B186" s="219"/>
+      <c r="B186" s="264"/>
       <c r="C186" s="38">
         <v>-1659</v>
       </c>
@@ -21396,10 +22880,10 @@
       </c>
     </row>
     <row r="213" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A213" s="220" t="s">
+      <c r="A213" s="265" t="s">
         <v>79</v>
       </c>
-      <c r="B213" s="219"/>
+      <c r="B213" s="264"/>
       <c r="C213" s="38">
         <v>-82</v>
       </c>
@@ -21438,10 +22922,10 @@
       </c>
     </row>
     <row r="214" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A214" s="208" t="s">
+      <c r="A214" s="253" t="s">
         <v>149</v>
       </c>
-      <c r="B214" s="211"/>
+      <c r="B214" s="254"/>
       <c r="C214" s="33">
         <v>-56</v>
       </c>
@@ -21648,10 +23132,10 @@
       </c>
     </row>
     <row r="219" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A219" s="208" t="s">
+      <c r="A219" s="253" t="s">
         <v>73</v>
       </c>
-      <c r="B219" s="209"/>
+      <c r="B219" s="234"/>
       <c r="C219" s="33">
         <v>-26</v>
       </c>
@@ -21690,10 +23174,10 @@
       </c>
     </row>
     <row r="220" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A220" s="208" t="s">
+      <c r="A220" s="253" t="s">
         <v>72</v>
       </c>
-      <c r="B220" s="209"/>
+      <c r="B220" s="234"/>
       <c r="C220" s="33">
         <v>-21</v>
       </c>
@@ -21900,10 +23384,10 @@
       </c>
     </row>
     <row r="225" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A225" s="208" t="s">
+      <c r="A225" s="253" t="s">
         <v>67</v>
       </c>
-      <c r="B225" s="209"/>
+      <c r="B225" s="234"/>
       <c r="C225" s="33">
         <v>-2</v>
       </c>
@@ -22026,10 +23510,10 @@
       </c>
     </row>
     <row r="228" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A228" s="208" t="s">
+      <c r="A228" s="253" t="s">
         <v>64</v>
       </c>
-      <c r="B228" s="209"/>
+      <c r="B228" s="234"/>
       <c r="C228" s="33">
         <v>-8</v>
       </c>
@@ -22152,10 +23636,10 @@
       </c>
     </row>
     <row r="231" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A231" s="208" t="s">
+      <c r="A231" s="253" t="s">
         <v>61</v>
       </c>
-      <c r="B231" s="210"/>
+      <c r="B231" s="266"/>
       <c r="C231" s="32">
         <v>5</v>
       </c>
@@ -22285,36 +23769,36 @@
       <c r="M236" s="5"/>
     </row>
     <row r="237" spans="1:14" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A237" s="202" t="s">
+      <c r="A237" s="210" t="s">
         <v>142</v>
       </c>
-      <c r="B237" s="203"/>
-      <c r="C237" s="261" t="s">
+      <c r="B237" s="211"/>
+      <c r="C237" s="208" t="s">
         <v>141</v>
       </c>
-      <c r="D237" s="226" t="s">
+      <c r="D237" s="228" t="s">
         <v>145</v>
       </c>
-      <c r="E237" s="257"/>
-      <c r="F237" s="258"/>
-      <c r="G237" s="232" t="s">
+      <c r="E237" s="229"/>
+      <c r="F237" s="230"/>
+      <c r="G237" s="203" t="s">
         <v>139</v>
       </c>
-      <c r="H237" s="233"/>
-      <c r="I237" s="234"/>
-      <c r="J237" s="226" t="s">
+      <c r="H237" s="204"/>
+      <c r="I237" s="205"/>
+      <c r="J237" s="228" t="s">
         <v>138</v>
       </c>
-      <c r="K237" s="227"/>
-      <c r="L237" s="228"/>
-      <c r="M237" s="255" t="s">
+      <c r="K237" s="231"/>
+      <c r="L237" s="232"/>
+      <c r="M237" s="226" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="204"/>
-      <c r="B238" s="205"/>
-      <c r="C238" s="262"/>
+      <c r="A238" s="212"/>
+      <c r="B238" s="213"/>
+      <c r="C238" s="209"/>
       <c r="D238" s="17" t="s">
         <v>134</v>
       </c>
@@ -22342,13 +23826,13 @@
       <c r="L238" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="M238" s="256"/>
+      <c r="M238" s="227"/>
     </row>
     <row r="239" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A239" s="197" t="s">
+      <c r="A239" s="257" t="s">
         <v>131</v>
       </c>
-      <c r="B239" s="198"/>
+      <c r="B239" s="258"/>
       <c r="C239" s="16">
         <v>-276</v>
       </c>
@@ -22384,10 +23868,10 @@
       </c>
     </row>
     <row r="240" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A240" s="199" t="s">
+      <c r="A240" s="267" t="s">
         <v>130</v>
       </c>
-      <c r="B240" s="200"/>
+      <c r="B240" s="268"/>
       <c r="C240" s="16">
         <v>1350</v>
       </c>
@@ -23320,10 +24804,10 @@
       </c>
     </row>
     <row r="264" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A264" s="201" t="s">
+      <c r="A264" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="B264" s="200"/>
+      <c r="B264" s="268"/>
       <c r="C264" s="16">
         <v>-1522</v>
       </c>
@@ -24373,10 +25857,10 @@
       </c>
     </row>
     <row r="291" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A291" s="201" t="s">
+      <c r="A291" s="269" t="s">
         <v>79</v>
       </c>
-      <c r="B291" s="200"/>
+      <c r="B291" s="268"/>
       <c r="C291" s="16">
         <v>-104</v>
       </c>
@@ -24412,10 +25896,10 @@
       </c>
     </row>
     <row r="292" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A292" s="195" t="s">
+      <c r="A292" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="B292" s="207"/>
+      <c r="B292" s="270"/>
       <c r="C292" s="12">
         <v>-71</v>
       </c>
@@ -24607,10 +26091,10 @@
       </c>
     </row>
     <row r="297" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A297" s="195" t="s">
+      <c r="A297" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="B297" s="196"/>
+      <c r="B297" s="202"/>
       <c r="C297" s="12">
         <v>-33</v>
       </c>
@@ -24646,10 +26130,10 @@
       </c>
     </row>
     <row r="298" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A298" s="195" t="s">
+      <c r="A298" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="B298" s="196"/>
+      <c r="B298" s="202"/>
       <c r="C298" s="12">
         <v>-29</v>
       </c>
@@ -24841,10 +26325,10 @@
       </c>
     </row>
     <row r="303" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A303" s="195" t="s">
+      <c r="A303" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="B303" s="196"/>
+      <c r="B303" s="202"/>
       <c r="C303" s="12">
         <v>-2</v>
       </c>
@@ -24958,10 +26442,10 @@
       </c>
     </row>
     <row r="306" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A306" s="195" t="s">
+      <c r="A306" s="201" t="s">
         <v>64</v>
       </c>
-      <c r="B306" s="196"/>
+      <c r="B306" s="202"/>
       <c r="C306" s="12">
         <v>-5</v>
       </c>
@@ -25075,10 +26559,10 @@
       </c>
     </row>
     <row r="309" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A309" s="195" t="s">
+      <c r="A309" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="B309" s="206"/>
+      <c r="B309" s="271"/>
       <c r="C309" s="13">
         <v>3</v>
       </c>
@@ -25191,29 +26675,29 @@
       <c r="P313" s="5"/>
     </row>
     <row r="314" spans="1:16" ht="14.25" customHeight="1" thickTop="1">
-      <c r="A314" s="202" t="s">
+      <c r="A314" s="210" t="s">
         <v>142</v>
       </c>
-      <c r="B314" s="203"/>
-      <c r="C314" s="261" t="s">
+      <c r="B314" s="211"/>
+      <c r="C314" s="208" t="s">
         <v>141</v>
       </c>
-      <c r="D314" s="226" t="s">
+      <c r="D314" s="228" t="s">
         <v>140</v>
       </c>
-      <c r="E314" s="257"/>
-      <c r="F314" s="258"/>
-      <c r="G314" s="232" t="s">
+      <c r="E314" s="229"/>
+      <c r="F314" s="230"/>
+      <c r="G314" s="203" t="s">
         <v>139</v>
       </c>
-      <c r="H314" s="233"/>
-      <c r="I314" s="234"/>
-      <c r="J314" s="226" t="s">
+      <c r="H314" s="204"/>
+      <c r="I314" s="205"/>
+      <c r="J314" s="228" t="s">
         <v>138</v>
       </c>
-      <c r="K314" s="227"/>
-      <c r="L314" s="228"/>
-      <c r="M314" s="255" t="s">
+      <c r="K314" s="231"/>
+      <c r="L314" s="232"/>
+      <c r="M314" s="226" t="s">
         <v>137</v>
       </c>
       <c r="N314" s="5"/>
@@ -25221,9 +26705,9 @@
       <c r="P314" s="5"/>
     </row>
     <row r="315" spans="1:16">
-      <c r="A315" s="204"/>
-      <c r="B315" s="205"/>
-      <c r="C315" s="262"/>
+      <c r="A315" s="212"/>
+      <c r="B315" s="213"/>
+      <c r="C315" s="209"/>
       <c r="D315" s="17" t="s">
         <v>134</v>
       </c>
@@ -25251,16 +26735,16 @@
       <c r="L315" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="M315" s="256"/>
+      <c r="M315" s="227"/>
       <c r="N315" s="5"/>
       <c r="O315" s="5"/>
       <c r="P315" s="5"/>
     </row>
     <row r="316" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A316" s="197" t="s">
+      <c r="A316" s="257" t="s">
         <v>131</v>
       </c>
-      <c r="B316" s="198"/>
+      <c r="B316" s="258"/>
       <c r="C316" s="16">
         <v>-1510</v>
       </c>
@@ -25299,10 +26783,10 @@
       <c r="P316" s="5"/>
     </row>
     <row r="317" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A317" s="199" t="s">
+      <c r="A317" s="267" t="s">
         <v>130</v>
       </c>
-      <c r="B317" s="200"/>
+      <c r="B317" s="268"/>
       <c r="C317" s="16">
         <v>-1395</v>
       </c>
@@ -26307,10 +27791,10 @@
       <c r="P340" s="5"/>
     </row>
     <row r="341" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A341" s="201" t="s">
+      <c r="A341" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="B341" s="200"/>
+      <c r="B341" s="268"/>
       <c r="C341" s="16">
         <v>-137</v>
       </c>
@@ -27441,10 +28925,10 @@
       <c r="P367" s="5"/>
     </row>
     <row r="368" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A368" s="201" t="s">
+      <c r="A368" s="269" t="s">
         <v>79</v>
       </c>
-      <c r="B368" s="200"/>
+      <c r="B368" s="268"/>
       <c r="C368" s="16">
         <v>22</v>
       </c>
@@ -27483,10 +28967,10 @@
       <c r="P368" s="5"/>
     </row>
     <row r="369" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A369" s="195" t="s">
+      <c r="A369" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="B369" s="207"/>
+      <c r="B369" s="270"/>
       <c r="C369" s="12">
         <v>15</v>
       </c>
@@ -27693,10 +29177,10 @@
       <c r="P373" s="5"/>
     </row>
     <row r="374" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A374" s="195" t="s">
+      <c r="A374" s="201" t="s">
         <v>73</v>
       </c>
-      <c r="B374" s="196"/>
+      <c r="B374" s="202"/>
       <c r="C374" s="12">
         <v>7</v>
       </c>
@@ -27735,10 +29219,10 @@
       <c r="P374" s="5"/>
     </row>
     <row r="375" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A375" s="195" t="s">
+      <c r="A375" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="B375" s="196"/>
+      <c r="B375" s="202"/>
       <c r="C375" s="12">
         <v>8</v>
       </c>
@@ -27945,10 +29429,10 @@
       <c r="P379" s="5"/>
     </row>
     <row r="380" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A380" s="195" t="s">
+      <c r="A380" s="201" t="s">
         <v>67</v>
       </c>
-      <c r="B380" s="196"/>
+      <c r="B380" s="202"/>
       <c r="C380" s="12">
         <v>0</v>
       </c>
@@ -28071,10 +29555,10 @@
       <c r="P382" s="5"/>
     </row>
     <row r="383" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A383" s="195" t="s">
+      <c r="A383" s="201" t="s">
         <v>64</v>
       </c>
-      <c r="B383" s="196"/>
+      <c r="B383" s="202"/>
       <c r="C383" s="12">
         <v>-3</v>
       </c>
@@ -28197,10 +29681,10 @@
       <c r="P385" s="5"/>
     </row>
     <row r="386" spans="1:16" ht="11.25" customHeight="1">
-      <c r="A386" s="195" t="s">
+      <c r="A386" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="B386" s="206"/>
+      <c r="B386" s="271"/>
       <c r="C386" s="13">
         <v>2</v>
       </c>
@@ -28302,11 +29786,72 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A341:B341"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="A383:B383"/>
+    <mergeCell ref="A314:B315"/>
+    <mergeCell ref="A386:B386"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A374:B374"/>
+    <mergeCell ref="A375:B375"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A297:B297"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="N158:N160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="J158:L158"/>
+    <mergeCell ref="M158:M160"/>
+    <mergeCell ref="G158:I158"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="L159:L160"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A158:B160"/>
+    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A146:B147"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="M314:M315"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="J237:L237"/>
+    <mergeCell ref="D314:F314"/>
+    <mergeCell ref="J314:L314"/>
+    <mergeCell ref="M237:M238"/>
+    <mergeCell ref="G237:I237"/>
     <mergeCell ref="A303:B303"/>
     <mergeCell ref="G314:I314"/>
     <mergeCell ref="B4:K4"/>
@@ -28323,72 +29868,11 @@
     <mergeCell ref="A127:B127"/>
     <mergeCell ref="A109:B111"/>
     <mergeCell ref="C109:E109"/>
-    <mergeCell ref="M314:M315"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="J237:L237"/>
-    <mergeCell ref="D314:F314"/>
-    <mergeCell ref="J314:L314"/>
-    <mergeCell ref="M237:M238"/>
-    <mergeCell ref="G237:I237"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A158:B160"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A146:B147"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="N158:N160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="J158:L158"/>
-    <mergeCell ref="M158:M160"/>
-    <mergeCell ref="G158:I158"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="L159:L160"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A297:B297"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A383:B383"/>
-    <mergeCell ref="A314:B315"/>
-    <mergeCell ref="A386:B386"/>
-    <mergeCell ref="A368:B368"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A374:B374"/>
-    <mergeCell ref="A375:B375"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="A341:B341"/>
-    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.31496062992125984"/>
@@ -28411,8 +29895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E3503-4711-434D-A679-C902933A2761}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
